--- a/data/Depot Information Sample.xlsx
+++ b/data/Depot Information Sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="740" windowWidth="28920" windowHeight="17320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="740" windowWidth="28920" windowHeight="17320" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depots" sheetId="1" state="visible" r:id="rId1"/>
@@ -459,7 +459,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,32 +753,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Oklahoma Mothers’ Milk Bank</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>940 NE 13th St, Garrison Tower, Suite 1220, Oklahoma City, OK 73104</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Integris Baptist</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3300 Northwest Expy, OKC, OK 73112</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>14.3</v>
+        <v>17.51666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/Depot Information Sample.xlsx
+++ b/data/Depot Information Sample.xlsx
@@ -696,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,11 @@
           <t>Driving Time (minutes)</t>
         </is>
       </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Driving Distance (miles)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -753,7 +758,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.51666666666667</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.6524</v>
       </c>
     </row>
   </sheetData>
